--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -19,7 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>_id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>LevelRequired</t>
+  </si>
+  <si>
     <t>物品类型</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>物品数量</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>ItemQuanlityList</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -103,49 +112,70 @@
     <t>1000,1,1,1</t>
   </si>
   <si>
+    <t>1000金币
+无名屠龙
+小火球
+10级礼包</t>
+  </si>
+  <si>
     <t>10级礼包</t>
   </si>
   <si>
-    <t>0,1,2001,3</t>
+    <t>0,2,3002,3</t>
   </si>
   <si>
     <t>10000,1,1,1</t>
   </si>
   <si>
+    <t>10000金币无名屠龙小火球20级礼包</t>
+  </si>
+  <si>
     <t>20级礼包</t>
   </si>
   <si>
-    <t>0,1,2001,4</t>
+    <t>0,3,2003,4</t>
   </si>
   <si>
     <t>100000,1,1,1</t>
   </si>
   <si>
+    <t>100000金币无名屠龙小火球30级礼包</t>
+  </si>
+  <si>
     <t>30级礼包</t>
   </si>
   <si>
-    <t>0,1,2001,5</t>
+    <t>0,4,2004,5</t>
+  </si>
+  <si>
+    <t>1000000金币无名屠龙小火球40级礼包</t>
   </si>
   <si>
     <t>40级礼包</t>
   </si>
   <si>
-    <t>0,1,2001,6</t>
+    <t>0,5,1005,6</t>
   </si>
   <si>
     <t>10000000,1,1,1</t>
   </si>
   <si>
+    <t>10000000金币无名屠龙小火球50级礼包</t>
+  </si>
+  <si>
     <t>50级礼包</t>
   </si>
   <si>
     <t>1,2,3</t>
   </si>
   <si>
-    <t>0,1,2001</t>
+    <t>0,6,2006</t>
   </si>
   <si>
     <t>100000000,1,1</t>
+  </si>
+  <si>
+    <t>100000000金币无名屠龙小火球</t>
   </si>
 </sst>
 </file>
@@ -789,11 +819,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,175 +1148,242 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G11"/>
+  <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
+    <row r="5" spans="3:9">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" ht="57" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 D5 E5 F5 G5 C3:C5 D3:D4 F3:F4 G3:G4" errorStyle="warning">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4:E5" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,E3)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4 D5 F5 G5 H5 I5 C3:C5 D3:D4 G3:G4 H3:H4 I3:I4" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -103,79 +103,76 @@
     <t>1级礼包</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>0,1,2001,2</t>
-  </si>
-  <si>
-    <t>1000,1,1,1</t>
-  </si>
-  <si>
-    <t>1000金币
-无名屠龙
-小火球
-10级礼包</t>
+    <t>1,2,2,2,2,2,2,2,2,3,4</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,2001,2</t>
+  </si>
+  <si>
+    <t>1000,1,1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1000金币，新手套装，小火球，10级礼包</t>
   </si>
   <si>
     <t>10级礼包</t>
   </si>
   <si>
-    <t>0,2,3002,3</t>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>0,1001,3</t>
   </si>
   <si>
     <t>10000,1,1,1</t>
   </si>
   <si>
-    <t>10000金币无名屠龙小火球20级礼包</t>
+    <t>10000金币，基础剑术，20级礼包</t>
   </si>
   <si>
     <t>20级礼包</t>
   </si>
   <si>
-    <t>0,3,2003,4</t>
+    <t>0,2003,4</t>
   </si>
   <si>
     <t>100000,1,1,1</t>
   </si>
   <si>
-    <t>100000金币无名屠龙小火球30级礼包</t>
+    <t>100000金币，，30级礼包</t>
   </si>
   <si>
     <t>30级礼包</t>
   </si>
   <si>
-    <t>0,4,2004,5</t>
-  </si>
-  <si>
-    <t>1000000金币无名屠龙小火球40级礼包</t>
+    <t>0,2004,5</t>
+  </si>
+  <si>
+    <t>1000000金币，小火球，40级礼包</t>
   </si>
   <si>
     <t>40级礼包</t>
   </si>
   <si>
-    <t>0,5,1005,6</t>
+    <t>0,1005,6</t>
   </si>
   <si>
     <t>10000000,1,1,1</t>
   </si>
   <si>
-    <t>10000000金币无名屠龙小火球50级礼包</t>
+    <t>10000000金币，小火球，50级礼包</t>
   </si>
   <si>
     <t>50级礼包</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>0,6,2006</t>
+    <t>0,2006</t>
   </si>
   <si>
     <t>100000000,1,1</t>
   </si>
   <si>
-    <t>100000000金币无名屠龙小火球</t>
+    <t>100000000金币，小火球</t>
   </si>
 </sst>
 </file>
@@ -829,6 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1151,7 +1149,7 @@
   <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1234,20 +1232,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="57" spans="3:9">
+    <row r="6" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1264,20 +1262,20 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -1285,22 +1283,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -1308,22 +1306,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
         <v>30</v>
       </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -1331,22 +1329,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
         <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:9">
@@ -1354,13 +1352,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>38</v>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -1149,7 +1149,7 @@
   <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1248,7 +1248,7 @@
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="4" t="s">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>_id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>1级礼包</t>
   </si>
   <si>
-    <t>1,2,2,2,2,2,2,2,2,3,4</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7,8,2001,2</t>
-  </si>
-  <si>
-    <t>1000,1,1,1,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>1000金币，新手套装，小火球，10级礼包</t>
+    <t>1,3,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>0,2001,2,11,101,102,103</t>
+  </si>
+  <si>
+    <t>1000,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1000金币，新手套装，战士技能包，法师技能包,道士技能包，10级礼包</t>
   </si>
   <si>
     <t>10级礼包</t>
@@ -173,6 +173,54 @@
   </si>
   <si>
     <t>100000000金币，小火球</t>
+  </si>
+  <si>
+    <t>新手套装</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,2,2,2,2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,5,6,6,7,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>新手系列装备全套</t>
+  </si>
+  <si>
+    <t>战士技能包</t>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,3</t>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1006,1007</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>战士职业技能各一本</t>
+  </si>
+  <si>
+    <t>法师技能包</t>
+  </si>
+  <si>
+    <t>2001,2002,2003,2004,2005,2006,2007</t>
+  </si>
+  <si>
+    <t>法师职业技能各一本</t>
+  </si>
+  <si>
+    <t>道士技能包</t>
+  </si>
+  <si>
+    <t>3001,3002,3003,3004,3005,3006,3007</t>
+  </si>
+  <si>
+    <t>道士职业技能各一本</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I13"/>
+  <dimension ref="C3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1157,8 +1205,9 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="42.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1232,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" ht="28.5" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1242,7 +1291,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1268,10 +1317,10 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1291,10 +1340,10 @@
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1314,7 +1363,7 @@
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1337,10 +1386,10 @@
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1360,21 +1409,107 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="1"/>
+    <row r="12" spans="3:9">
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="1"/>
+    <row r="13" spans="3:9">
+      <c r="C13" s="1">
+        <v>101</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="1">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="1">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>_id</t>
   </si>
@@ -188,6 +188,66 @@
   </si>
   <si>
     <t>新手系列装备全套</t>
+  </si>
+  <si>
+    <t>吸血套</t>
+  </si>
+  <si>
+    <t>2,2,2,2</t>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>吸血测试套</t>
+  </si>
+  <si>
+    <t>灼烧套</t>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+  </si>
+  <si>
+    <t>灼烧测试套</t>
+  </si>
+  <si>
+    <t>回复套</t>
+  </si>
+  <si>
+    <t>17,18,19,20</t>
+  </si>
+  <si>
+    <t>回复测试套</t>
+  </si>
+  <si>
+    <t>中毒套</t>
+  </si>
+  <si>
+    <t>21,22,23,24</t>
+  </si>
+  <si>
+    <t>中毒测试套</t>
+  </si>
+  <si>
+    <t>晕眩套</t>
+  </si>
+  <si>
+    <t>25,26,27,28</t>
+  </si>
+  <si>
+    <t>晕眩测试套</t>
+  </si>
+  <si>
+    <t>冰冻套</t>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
+  </si>
+  <si>
+    <t>冰冻测试套</t>
   </si>
   <si>
     <t>战士技能包</t>
@@ -399,12 +459,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1194,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I15"/>
+  <dimension ref="C3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1444,7 +1504,7 @@
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="1">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -1467,7 +1527,7 @@
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="1">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>51</v>
@@ -1490,7 +1550,7 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="1">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>54</v>
@@ -1509,6 +1569,144 @@
       </c>
       <c r="I15" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="1">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="1">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="1">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>_id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>1级礼包</t>
   </si>
   <si>
-    <t>1,3,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>0,2001,2,11,101,102,103</t>
+    <t>1,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>0,2,11,101,102,103</t>
   </si>
   <si>
     <t>1000,1,1,1,1,1,1</t>
@@ -118,61 +118,64 @@
     <t>10级礼包</t>
   </si>
   <si>
-    <t>1,3,4</t>
-  </si>
-  <si>
-    <t>0,1001,3</t>
-  </si>
-  <si>
-    <t>10000,1,1,1</t>
-  </si>
-  <si>
-    <t>10000金币，基础剑术，20级礼包</t>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>10000,1</t>
+  </si>
+  <si>
+    <t>10000金币，20级礼包</t>
   </si>
   <si>
     <t>20级礼包</t>
   </si>
   <si>
-    <t>0,2003,4</t>
-  </si>
-  <si>
-    <t>100000,1,1,1</t>
-  </si>
-  <si>
-    <t>100000金币，，30级礼包</t>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>100000,1</t>
+  </si>
+  <si>
+    <t>10万金币，30级礼包</t>
   </si>
   <si>
     <t>30级礼包</t>
   </si>
   <si>
-    <t>0,2004,5</t>
-  </si>
-  <si>
-    <t>1000000金币，小火球，40级礼包</t>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1000000,1</t>
+  </si>
+  <si>
+    <t>100万金币，40级礼包</t>
   </si>
   <si>
     <t>40级礼包</t>
   </si>
   <si>
-    <t>0,1005,6</t>
-  </si>
-  <si>
-    <t>10000000,1,1,1</t>
-  </si>
-  <si>
-    <t>10000000金币，小火球，50级礼包</t>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>5000000,1</t>
+  </si>
+  <si>
+    <t>500万金币，50级礼包</t>
   </si>
   <si>
     <t>50级礼包</t>
   </si>
   <si>
-    <t>0,2006</t>
-  </si>
-  <si>
-    <t>100000000,1,1</t>
-  </si>
-  <si>
-    <t>100000000金币，小火球</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>1000万金币</t>
   </si>
   <si>
     <t>新手套装</t>
@@ -459,12 +462,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1257,7 +1260,7 @@
   <dimension ref="C3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1426,11 +1429,11 @@
       <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -1438,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -1447,13 +1450,13 @@
         <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:9">
@@ -1461,22 +1464,22 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -1484,22 +1487,22 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -1507,22 +1510,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="3:9">
@@ -1530,22 +1533,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -1553,22 +1556,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="3:9">
@@ -1576,22 +1579,22 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:9">
@@ -1599,22 +1602,22 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -1622,22 +1625,22 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:9">
@@ -1645,22 +1648,22 @@
         <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="3:9">
@@ -1668,22 +1671,22 @@
         <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="3:9">
@@ -1691,22 +1694,22 @@
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -106,7 +106,7 @@
     <t>10,10,10,10,10,10</t>
   </si>
   <si>
-    <t>1001,1002,1003,2001,2002,2003</t>
+    <t>1000001,1000002,1000003,1000004,1000005,1000006</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
@@ -1089,7 +1089,7 @@
   <dimension ref="A3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1098,7 +1098,7 @@
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="42.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,84 +13,33 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 金币
-2 装备
-3 技能书
-4 礼包
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>Name</t>
   </si>
   <si>
     <t>LevelRequired</t>
   </si>
   <si>
-    <t>物品类型</t>
-  </si>
-  <si>
-    <t>物品Id</t>
-  </si>
-  <si>
-    <t>物品数量</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>ItemTypeList</t>
+  </si>
+  <si>
+    <t>ItemIdList</t>
+  </si>
+  <si>
+    <t>ItemQuanlityList</t>
+  </si>
+  <si>
+    <t>Des</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ItemTypeList</t>
-  </si>
-  <si>
-    <t>ItemIdList</t>
-  </si>
-  <si>
-    <t>ItemQuanlityList</t>
-  </si>
-  <si>
-    <t>Des</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -100,19 +49,64 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>专属自选</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10</t>
-  </si>
-  <si>
-    <t>1000001,1000002,1000003,1000004,1000005,1000006</t>
+    <t>专属自选1</t>
+  </si>
+  <si>
+    <t>12,12,12,12,12,12</t>
+  </si>
+  <si>
+    <t>101,102,103,104,105,106</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
-    <t>十一盖楼礼包，专属自选包</t>
+    <t>专属1自选包</t>
+  </si>
+  <si>
+    <t>专属自选2</t>
+  </si>
+  <si>
+    <t>201,202,203,204,205,206</t>
+  </si>
+  <si>
+    <t>专属2自选包</t>
+  </si>
+  <si>
+    <t>专属自选3</t>
+  </si>
+  <si>
+    <t>301,302,303,304,305,306</t>
+  </si>
+  <si>
+    <t>专属3自选包</t>
+  </si>
+  <si>
+    <t>专属自选4</t>
+  </si>
+  <si>
+    <t>401,402,403,404,405,406</t>
+  </si>
+  <si>
+    <t>专属4自选包</t>
+  </si>
+  <si>
+    <t>专属自选5</t>
+  </si>
+  <si>
+    <t>501,502,503,504,505,506</t>
+  </si>
+  <si>
+    <t>专属5自选包</t>
+  </si>
+  <si>
+    <t>专属自选6</t>
+  </si>
+  <si>
+    <t>601,602,603,604,605,606</t>
+  </si>
+  <si>
+    <t>专属6自选包</t>
   </si>
 </sst>
 </file>
@@ -125,7 +119,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,15 +130,17 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -289,17 +285,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1086,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I6"/>
+  <dimension ref="C3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
@@ -1104,7 +1089,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
+    <row r="3" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1127,88 +1112,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:9">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I12" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 F3 G3 H3 I3 D4 F4 G4 H4 I4 D5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,E3)&lt;2</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4 D5 F5 G5 H5 I5 C3:C5 D3:D4 G3:G4 H3:H4 I3:I4" errorStyle="warning">
-      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>_id</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>专属6自选包</t>
+  </si>
+  <si>
+    <t>攻略自选包</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
   <dimension ref="C3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1296,8 +1302,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I12" s="4"/>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>_id</t>
   </si>
@@ -113,12 +126,27 @@
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>技能自选</t>
+  </si>
+  <si>
+    <t>3,3,3</t>
+  </si>
+  <si>
+    <t>1008,2008,3008</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>高级技能任选</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1077,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I12"/>
+  <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1325,6 +1353,29 @@
         <v>31</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="3:9">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 F3 G3 H3 I3 D4 F4 G4 H4 I4 D5 F5 G5 H5 I5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>_id</t>
   </si>
@@ -128,7 +128,7 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
-    <t>技能自选</t>
+    <t>8介技能自选</t>
   </si>
   <si>
     <t>3,3,3</t>
@@ -140,7 +140,34 @@
     <t>1,1,1</t>
   </si>
   <si>
-    <t>高级技能任选</t>
+    <t>护体，瞬移，隐身 三选一</t>
+  </si>
+  <si>
+    <t>9介技能自选</t>
+  </si>
+  <si>
+    <t>1009,2009,3009</t>
+  </si>
+  <si>
+    <t>开天，流星，月灵 三选一</t>
+  </si>
+  <si>
+    <t>战神时装包</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>恶魔时装包</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
+  </si>
+  <si>
+    <t>幽灵时装包</t>
+  </si>
+  <si>
+    <t>17,18,19,20,21,22,23,24</t>
   </si>
 </sst>
 </file>
@@ -153,7 +180,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +202,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -645,143 +678,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1105,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I13"/>
+  <dimension ref="C3:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1202,16 +1236,16 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1225,16 +1259,16 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1248,16 +1282,16 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1271,16 +1305,16 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1294,16 +1328,16 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1317,16 +1351,16 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1340,13 +1374,13 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1363,17 +1397,82 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:7">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:7">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:7">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>_id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>GiftType</t>
+  </si>
+  <si>
     <t>LevelRequired</t>
   </si>
   <si>
@@ -44,7 +47,7 @@
     <t>ItemIdList</t>
   </si>
   <si>
-    <t>ItemQuanlityList</t>
+    <t>ItemCountList</t>
   </si>
   <si>
     <t>Des</t>
@@ -155,19 +158,34 @@
     <t>战神时装包</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8</t>
+    <t>13,13,13,13,13,13,13,13</t>
+  </si>
+  <si>
+    <t>3000001,3000002,3000003,3000004,3000005,3000006,3000007,3000008</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>战神时装一套</t>
   </si>
   <si>
     <t>恶魔时装包</t>
   </si>
   <si>
-    <t>9,10,11,12,13,14,15,16</t>
+    <t>3000009,3000010,3000011,3000012,3000013,3000014,3000015,3000016</t>
+  </si>
+  <si>
+    <t>恶魔时装一套</t>
   </si>
   <si>
     <t>幽灵时装包</t>
   </si>
   <si>
-    <t>17,18,19,20,21,22,23,24</t>
+    <t>3000017,3000018,3000019,3000020,3000021,3000022,3000023,3000024</t>
+  </si>
+  <si>
+    <t>幽灵时装一套</t>
   </si>
 </sst>
 </file>
@@ -1139,25 +1157,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I17"/>
+  <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:9">
+    <row r="3" customHeight="1" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,10 +1197,13 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="3:9">
+    <row r="4" customHeight="1" spans="3:10">
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1202,42 +1223,48 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="3:9">
+    <row r="5" customHeight="1" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -1245,160 +1272,181 @@
       <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="3:9">
+    <row r="13" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>35</v>
@@ -1406,82 +1454,124 @@
       <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" customHeight="1" spans="3:9">
+    <row r="14" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="3:7">
+    <row r="15" customHeight="1" spans="3:10">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4">
         <v>0</v>
       </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:7">
+    <row r="16" customHeight="1" spans="3:10">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>44</v>
+      <c r="H16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:7">
+    <row r="17" customHeight="1" spans="3:10">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>46</v>
+      <c r="J17" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 F3 G3 H3 I3 D4 F4 G4 H4 I4 D5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4:E5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,E3)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4:F5" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,F3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>_id</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>幽灵时装一套</t>
+  </si>
+  <si>
+    <t>专属自选包7</t>
+  </si>
+  <si>
+    <t>701,702,703,704,705,706</t>
+  </si>
+  <si>
+    <t>节日冰咆哮专属自选包</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J17"/>
+  <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1565,6 +1574,32 @@
         <v>52</v>
       </c>
     </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>_id</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>节日冰咆哮专属自选包</t>
+  </si>
+  <si>
+    <t>2024春节盖楼专属</t>
+  </si>
+  <si>
+    <t>801,802,803,804,805,806</t>
+  </si>
+  <si>
+    <t>2024春节盖楼专属自选包</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J18"/>
+  <dimension ref="C3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1600,6 +1609,32 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>_id</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>2024春节盖楼专属自选包</t>
+  </si>
+  <si>
+    <t>圣战时装包</t>
+  </si>
+  <si>
+    <t>3000025,3000026,3000027,3000028,3000029,3000030,3000031,3000032</t>
+  </si>
+  <si>
+    <t>法神时装包</t>
+  </si>
+  <si>
+    <t>3000033,3000034,3000035,3000036,3000037,3000038,3000039,3000040</t>
+  </si>
+  <si>
+    <t>天尊时装包</t>
+  </si>
+  <si>
+    <t>3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J19"/>
+  <dimension ref="C3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1635,6 +1653,84 @@
         <v>58</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="3:10">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:10">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>_id</t>
   </si>
@@ -222,6 +222,30 @@
   </si>
   <si>
     <t>3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
+  </si>
+  <si>
+    <t>刺杀吸血4件套</t>
+  </si>
+  <si>
+    <t>12,12,12,12,5,5</t>
+  </si>
+  <si>
+    <t>7,8,9,10,4005,4010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,300,60</t>
+  </si>
+  <si>
+    <t>武力盾4件套</t>
+  </si>
+  <si>
+    <t>11,12,13,14,4005,4010</t>
+  </si>
+  <si>
+    <t>冰咆哮4件套</t>
+  </si>
+  <si>
+    <t>5,6,705,706,4005,4010</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J22"/>
+  <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1731,6 +1755,84 @@
         <v>63</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>冰咆哮4件套</t>
   </si>
   <si>
-    <t>5,6,705,706,4005,4010</t>
+    <t>803,804,705,706,4005,4010</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
   <dimension ref="C3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>_id</t>
   </si>
@@ -222,6 +222,33 @@
   </si>
   <si>
     <t>3000041,3000042,3000043,3000044,3000045,3000046,3000047,3000048</t>
+  </si>
+  <si>
+    <t>法宝自选</t>
+  </si>
+  <si>
+    <t>18,18,18,18,18,18</t>
+  </si>
+  <si>
+    <t>180007,180009,180001,180002,180004,180005</t>
+  </si>
+  <si>
+    <t>法宝自选包</t>
+  </si>
+  <si>
+    <t>神技自选1</t>
+  </si>
+  <si>
+    <t>19,19,19,19,19</t>
+  </si>
+  <si>
+    <t>8001,8002,8003,8004,8005</t>
+  </si>
+  <si>
+    <t>神技自选2</t>
+  </si>
+  <si>
+    <t>8006,8007,8008,8009,8010</t>
   </si>
   <si>
     <t>刺杀吸血4件套</t>
@@ -1217,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J26"/>
+  <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1755,82 +1782,160 @@
         <v>63</v>
       </c>
     </row>
+    <row r="23" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="24" customHeight="1" spans="3:10">
       <c r="C24" s="1">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:10">
       <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
+        <v>101</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:10">
+      <c r="C28" s="1">
         <v>102</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:10">
-      <c r="C26" s="1">
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
         <v>103</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>71</v>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>_id</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>8006,8007,8008,8009,8010</t>
+  </si>
+  <si>
+    <t>专属自选8</t>
+  </si>
+  <si>
+    <t>12,12,12</t>
+  </si>
+  <si>
+    <t>15,16,17</t>
+  </si>
+  <si>
+    <t>护体，瞬移，隐身专属自选</t>
   </si>
   <si>
     <t>刺杀吸血4件套</t>
@@ -1244,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J29"/>
+  <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1860,82 +1872,114 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:10">
-      <c r="C27" s="1">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="10:10">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="10:10">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
         <v>101</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:10">
-      <c r="C28" s="1">
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
         <v>102</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:10">
-      <c r="C29" s="1">
+      <c r="H31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
         <v>103</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>80</v>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>_id</t>
   </si>
@@ -239,7 +239,7 @@
     <t>神技自选1</t>
   </si>
   <si>
-    <t>19,19,19,19,19</t>
+    <t>5,5,5,5,5</t>
   </si>
   <si>
     <t>8001,8002,8003,8004,8005</t>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>护体，瞬移，隐身专属自选</t>
+  </si>
+  <si>
+    <t>特戒自选</t>
+  </si>
+  <si>
+    <t>19,19,19,19,19,19,19</t>
+  </si>
+  <si>
+    <t>190001,190002,190003,190004,190005,190006</t>
   </si>
   <si>
     <t>刺杀吸血4件套</t>
@@ -1258,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1898,8 +1907,31 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="10:10">
-      <c r="J27" s="4"/>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="10:10">
       <c r="J28" s="4"/>
@@ -1909,7 +1941,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1918,16 +1950,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
@@ -1935,25 +1967,25 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="H31" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:10">
@@ -1961,25 +1993,25 @@
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>_id</t>
   </si>
@@ -272,6 +272,12 @@
     <t>190001,190002,190003,190004,190005,190006</t>
   </si>
   <si>
+    <t>升级自选</t>
+  </si>
+  <si>
+    <t>807,808,809,810,811,812</t>
+  </si>
+  <si>
     <t>刺杀吸血4件套</t>
   </si>
   <si>
@@ -294,6 +300,18 @@
   </si>
   <si>
     <t>803,804,705,706,4005,4010</t>
+  </si>
+  <si>
+    <t>道力盾4件套</t>
+  </si>
+  <si>
+    <t>18,19,20,21,4005,4010</t>
+  </si>
+  <si>
+    <t>月灵4件套</t>
+  </si>
+  <si>
+    <t>22,23,24,25,4005,4010</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1283,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J32"/>
+  <dimension ref="C3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1933,15 +1951,38 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="10:10">
-      <c r="J28" s="4"/>
+    <row r="28" customHeight="1" spans="3:10">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" customHeight="1" spans="3:10">
       <c r="C30" s="1">
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1950,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
@@ -1967,7 +2008,7 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1976,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:10">
@@ -1993,7 +2034,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2002,16 +2043,68 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:10">
+      <c r="C33" s="1">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>87</v>
+      <c r="H33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
+      <c r="C34" s="1">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
   <si>
     <t>_id</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t>22,23,24,25,4005,4010</t>
+  </si>
+  <si>
+    <t>大佬礼包1</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>4014,4012.4001,4011.4012,4010</t>
+  </si>
+  <si>
+    <t>500.2000.20000000,4,200,50</t>
+  </si>
+  <si>
+    <t>经验丹0.5K,传世精华2k,魂环碎片2KW,红装精华3,高级书页200,专属之心</t>
+  </si>
+  <si>
+    <t>大佬礼包2</t>
+  </si>
+  <si>
+    <t>1000.4000.40000000,8,400,100</t>
+  </si>
+  <si>
+    <t>特戒神技自选</t>
+  </si>
+  <si>
+    <t>大佬礼包3</t>
+  </si>
+  <si>
+    <t>1500.6000.60000000,12,600,150</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J34"/>
+  <dimension ref="C3:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2107,6 +2137,84 @@
         <v>93</v>
       </c>
     </row>
+    <row r="36" customHeight="1" spans="3:10">
+      <c r="C36" s="1">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="1">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
+      <c r="C38" s="1">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <t>500.2000.20000000,4,200,50</t>
   </si>
   <si>
-    <t>经验丹0.5K,传世精华2k,魂环碎片2KW,红装精华3,高级书页200,专属之心</t>
+    <t>经验丹0.5K,传世精华2k,魂环碎片2KW,红装精华3,高级书页200个,专属之心50个</t>
   </si>
   <si>
     <t>大佬礼包2</t>
@@ -1315,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <t>180007,180009,180001,180002,180004,180005</t>
   </si>
   <si>
-    <t>法宝自选包</t>
+    <t>特殊法宝自选</t>
   </si>
   <si>
     <t>神技自选1</t>
@@ -320,28 +320,28 @@
     <t>5,5,5,5,5,5</t>
   </si>
   <si>
-    <t>4014,4012.4001,4011.4012,4010</t>
-  </si>
-  <si>
-    <t>500.2000.20000000,4,200,50</t>
-  </si>
-  <si>
-    <t>经验丹0.5K,传世精华2k,魂环碎片2KW,红装精华3,高级书页200个,专属之心50个</t>
+    <t>4014,4012,4001,4011,4012,4010</t>
+  </si>
+  <si>
+    <t>50,2000,10000000,4,200,50</t>
+  </si>
+  <si>
+    <t>经验丹0.5K,传世精华2k,魂环碎片1KW,红装精华3,高级书页200个,专属之心50个</t>
   </si>
   <si>
     <t>大佬礼包2</t>
   </si>
   <si>
-    <t>1000.4000.40000000,8,400,100</t>
-  </si>
-  <si>
-    <t>特戒神技自选</t>
+    <t>180005,180006,180018,180002,180004,180008</t>
+  </si>
+  <si>
+    <t>普通法宝自选</t>
   </si>
   <si>
     <t>大佬礼包3</t>
   </si>
   <si>
-    <t>1500.6000.60000000,12,600,150</t>
+    <t>180007,180009,180001,180002,180004,180019</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>102</v>
@@ -2203,16 +2203,16 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -1315,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>_id</t>
   </si>
@@ -314,34 +314,37 @@
     <t>22,23,24,25,4005,4010</t>
   </si>
   <si>
-    <t>大佬礼包1</t>
-  </si>
-  <si>
-    <t>5,5,5,5,5,5</t>
-  </si>
-  <si>
-    <t>4014,4012,4001,4011,4012,4010</t>
-  </si>
-  <si>
-    <t>50,2000,10000000,4,200,50</t>
+    <t>白银礼包</t>
+  </si>
+  <si>
+    <t>15,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>4014,4012,4001,4011,4102,4010</t>
+  </si>
+  <si>
+    <t>500,2000,10000000,4,200,50</t>
   </si>
   <si>
     <t>经验丹0.5K,传世精华2k,魂环碎片1KW,红装精华3,高级书页200个,专属之心50个</t>
   </si>
   <si>
-    <t>大佬礼包2</t>
+    <t>黄金礼包</t>
   </si>
   <si>
     <t>180005,180006,180018,180002,180004,180008</t>
   </si>
   <si>
-    <t>普通法宝自选</t>
-  </si>
-  <si>
-    <t>大佬礼包3</t>
+    <t>初级法宝自选</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
   </si>
   <si>
     <t>180007,180009,180001,180002,180004,180019</t>
+  </si>
+  <si>
+    <t>高级法宝自选</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2212,7 +2215,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>_id</t>
   </si>
@@ -278,6 +278,18 @@
     <t>807,808,809,810,811,812</t>
   </si>
   <si>
+    <t>初级法宝自选</t>
+  </si>
+  <si>
+    <t>180006,180008,180010,180018,180020,180021</t>
+  </si>
+  <si>
+    <t>高级法宝自选</t>
+  </si>
+  <si>
+    <t>180001,180002,180004,180019,180005,180009</t>
+  </si>
+  <si>
     <t>刺杀吸血4件套</t>
   </si>
   <si>
@@ -335,16 +347,10 @@
     <t>180005,180006,180018,180002,180004,180008</t>
   </si>
   <si>
-    <t>初级法宝自选</t>
-  </si>
-  <si>
     <t>钻石礼包</t>
   </si>
   <si>
     <t>180007,180009,180001,180002,180004,180019</t>
-  </si>
-  <si>
-    <t>高级法宝自选</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J38"/>
+  <dimension ref="C3:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2010,87 +2016,87 @@
         <v>81</v>
       </c>
     </row>
+    <row r="29" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="30" customHeight="1" spans="3:10">
       <c r="C30" s="1">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:10">
-      <c r="C31" s="1">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:10">
       <c r="C32" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:10">
       <c r="C33" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>91</v>
@@ -2102,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>92</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>91</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>93</v>
@@ -2128,94 +2134,146 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>94</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="1">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:10">
-      <c r="C37" s="1">
-        <v>107</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
+      <c r="C39" s="1">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
+      <c r="C40" s="1">
         <v>108</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="H40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>105</v>
+      <c r="J40" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>_id</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>180001,180002,180004,180019,180005,180009</t>
+  </si>
+  <si>
+    <t>神技自选</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>8001,8002,8003,8004,8005,8006,8007,8008,8009,8010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
     <t>刺杀吸血4件套</t>
@@ -1322,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J40"/>
+  <dimension ref="C3:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2068,35 +2080,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:10">
-      <c r="C32" s="1">
-        <v>101</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:10">
       <c r="C33" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>91</v>
@@ -2108,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>91</v>
@@ -2122,10 +2134,10 @@
     </row>
     <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2134,24 +2146,24 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:10">
       <c r="C35" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2160,102 +2172,102 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="1">
         <v>105</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:10">
-      <c r="C38" s="1">
-        <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>103</v>
+      <c r="I37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>105</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
+        <v>107</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2267,22 +2279,48 @@
         <v>66</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 I3 J3 D4 E4 G4 H4 I4 J4 D5 E5 G5 H5 I5 J5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,F3)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5 G3:J5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4:F5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,F3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>_id</t>
   </si>
@@ -302,16 +302,34 @@
     <t>1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
+    <t>法力盾4件套</t>
+  </si>
+  <si>
+    <t>12,12,12,12,5,5</t>
+  </si>
+  <si>
+    <t>26,27,28,29,4005,4010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,300,60</t>
+  </si>
+  <si>
+    <t>雷电6件套</t>
+  </si>
+  <si>
+    <t>12,12,12,12,12,12,5,5</t>
+  </si>
+  <si>
+    <t>30,31,32,33,34,35,4005,4010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,300,60</t>
+  </si>
+  <si>
     <t>刺杀吸血4件套</t>
   </si>
   <si>
-    <t>12,12,12,12,5,5</t>
-  </si>
-  <si>
     <t>7,8,9,10,4005,4010</t>
-  </si>
-  <si>
-    <t>1,1,1,1,300,60</t>
   </si>
   <si>
     <t>武力盾4件套</t>
@@ -1334,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J41"/>
+  <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2106,38 +2124,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:10">
-      <c r="C33" s="1">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2149,44 +2141,44 @@
         <v>92</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>94</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:10">
       <c r="C35" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>99</v>
@@ -2212,7 +2204,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>101</v>
@@ -2236,81 +2228,159 @@
         <v>101</v>
       </c>
     </row>
+    <row r="38" customHeight="1" spans="3:10">
+      <c r="C38" s="1">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
+        <v>104</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="I40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
+      <c r="C43" s="1">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="H43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:10">
-      <c r="C41" s="1">
+    <row r="44" customHeight="1" spans="3:10">
+      <c r="C44" s="1">
         <v>108</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="H44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
   <si>
     <t>_id</t>
   </si>
@@ -381,6 +381,39 @@
   </si>
   <si>
     <t>180007,180009,180001,180002,180004,180019</t>
+  </si>
+  <si>
+    <t>战士红装</t>
+  </si>
+  <si>
+    <t>20,20,20,20,20,20,20,20</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>战士满经验红装自选</t>
+  </si>
+  <si>
+    <t>法师红装</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
+  </si>
+  <si>
+    <t>法师满经验红装自选</t>
+  </si>
+  <si>
+    <t>道士红装</t>
+  </si>
+  <si>
+    <t>17,18,19,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>道士满经验红装自选</t>
   </si>
 </sst>
 </file>
@@ -1352,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J44"/>
+  <dimension ref="C3:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2384,6 +2417,84 @@
         <v>85</v>
       </c>
     </row>
+    <row r="46" customHeight="1" spans="3:10">
+      <c r="C46" s="1">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="138">
   <si>
     <t>_id</t>
   </si>
@@ -383,7 +383,7 @@
     <t>180007,180009,180001,180002,180004,180019</t>
   </si>
   <si>
-    <t>战士红装</t>
+    <t>战士经验红装</t>
   </si>
   <si>
     <t>20,20,20,20,20,20,20,20</t>
@@ -398,7 +398,7 @@
     <t>战士满经验红装自选</t>
   </si>
   <si>
-    <t>法师红装</t>
+    <t>法师经验红装</t>
   </si>
   <si>
     <t>9,10,11,12,13,14,15,16</t>
@@ -407,13 +407,40 @@
     <t>法师满经验红装自选</t>
   </si>
   <si>
-    <t>道士红装</t>
+    <t>道士经验红装</t>
   </si>
   <si>
     <t>17,18,19,20,21,22,23,24</t>
   </si>
   <si>
     <t>道士满经验红装自选</t>
+  </si>
+  <si>
+    <t>战士输出红装</t>
+  </si>
+  <si>
+    <t>25,26,27,28,29,30,31,32</t>
+  </si>
+  <si>
+    <t>战士输出红装自选</t>
+  </si>
+  <si>
+    <t>法师输出红装</t>
+  </si>
+  <si>
+    <t>33,34,35,36,37,38,39,40</t>
+  </si>
+  <si>
+    <t>法师输出红装自选</t>
+  </si>
+  <si>
+    <t>道士输出红装</t>
+  </si>
+  <si>
+    <t>41,42,43,44,45,46,47,48</t>
+  </si>
+  <si>
+    <t>道士输出红装自选</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J48"/>
+  <dimension ref="C3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2495,6 +2522,84 @@
         <v>128</v>
       </c>
     </row>
+    <row r="49" customHeight="1" spans="3:10">
+      <c r="C49" s="1">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
+      <c r="C50" s="1">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
+      <c r="C51" s="1">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5" errorStyle="warning">

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1414,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="C3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>_id</t>
   </si>
@@ -302,6 +302,27 @@
     <t>1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
+    <t>10阶级技能自选</t>
+  </si>
+  <si>
+    <t>1010,2010,3010</t>
+  </si>
+  <si>
+    <t>地钉，分身，无极 三选一</t>
+  </si>
+  <si>
+    <t>专属自选</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>99,100,101,102,103,104,105</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
     <t>法力盾4件套</t>
   </si>
   <si>
@@ -390,9 +411,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
     <t>战士满经验红装自选</t>
@@ -1412,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J51"/>
+  <dimension ref="C3:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2184,64 +2202,90 @@
         <v>87</v>
       </c>
     </row>
+    <row r="32" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:10">
       <c r="C35" s="1">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="I35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2250,50 +2294,50 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2302,24 +2346,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2328,76 +2372,76 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
         <v>105</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:10">
-      <c r="C42" s="1">
-        <v>106</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>113</v>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
       <c r="C43" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2406,24 +2450,24 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:10">
       <c r="C44" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2435,47 +2479,47 @@
         <v>66</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
+      <c r="C45" s="1">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:10">
-      <c r="C46" s="1">
-        <v>109</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:10">
       <c r="C47" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2484,50 +2528,50 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:10">
       <c r="C48" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="H48" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:10">
       <c r="C49" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2536,24 +2580,24 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2562,42 +2606,68 @@
         <v>0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:10">
       <c r="C51" s="1">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
+      <c r="C52" s="1">
         <v>114</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>137</v>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
   <si>
     <t>_id</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>地钉，分身，无极 三选一</t>
+  </si>
+  <si>
+    <t>魂骨自选</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>8101,8102,8103,8104,8105,8106,8107,8108</t>
+  </si>
+  <si>
+    <t>11阶级技能自选</t>
+  </si>
+  <si>
+    <t>1011,2011,3011</t>
+  </si>
+  <si>
+    <t>战魂，法魂，道魂 三选一</t>
   </si>
   <si>
     <t>专属自选</t>
@@ -1099,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1107,10 +1125,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1430,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J52"/>
+  <dimension ref="C3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1539,16 +1559,16 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1565,16 +1585,16 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1591,16 +1611,16 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1617,16 +1637,16 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1643,16 +1663,16 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1669,16 +1689,16 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1695,13 +1715,13 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1721,13 +1741,13 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1747,13 +1767,13 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1773,13 +1793,13 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1799,13 +1819,13 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -1825,13 +1845,13 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -1851,13 +1871,13 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1877,13 +1897,13 @@
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1903,13 +1923,13 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -1929,13 +1949,13 @@
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -1955,13 +1975,13 @@
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -1981,13 +2001,13 @@
       <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -2007,13 +2027,13 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2033,13 +2053,13 @@
       <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2059,13 +2079,13 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -2085,13 +2105,13 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -2111,13 +2131,13 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -2137,13 +2157,13 @@
       <c r="F29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -2163,13 +2183,13 @@
       <c r="F30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2189,13 +2209,13 @@
       <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -2215,126 +2235,126 @@
       <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="33" customHeight="1" spans="3:10">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>97</v>
+      <c r="I34" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:10">
-      <c r="C35" s="1">
         <v>99</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>108</v>
@@ -2345,14 +2365,14 @@
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>101</v>
+      <c r="H38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>108</v>
@@ -2360,10 +2380,10 @@
     </row>
     <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2371,25 +2391,25 @@
       <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>101</v>
+      <c r="G39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2397,129 +2417,155 @@
       <c r="F40" s="2">
         <v>0</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>101</v>
+      <c r="G40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:10">
       <c r="C41" s="1">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>101</v>
+      <c r="H41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
       <c r="C43" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>119</v>
+      <c r="G43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:10">
-      <c r="C44" s="1">
-        <v>107</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="45" customHeight="1" spans="3:10">
       <c r="C45" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
+      <c r="C46" s="1">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="H46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>85</v>
+      <c r="J46" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:10">
       <c r="C47" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2527,66 +2573,40 @@
       <c r="F47" s="2">
         <v>0</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>97</v>
+      <c r="G47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:10">
-      <c r="C48" s="1">
-        <v>110</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:10">
       <c r="C49" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>97</v>
+      <c r="I49" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>134</v>
@@ -2594,7 +2614,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>135</v>
@@ -2605,14 +2625,14 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>97</v>
+      <c r="I50" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>137</v>
@@ -2620,7 +2640,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:10">
       <c r="C51" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>138</v>
@@ -2631,14 +2651,14 @@
       <c r="F51" s="2">
         <v>0</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="G51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>97</v>
+      <c r="I51" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>140</v>
@@ -2646,7 +2666,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>141</v>
@@ -2657,17 +2677,69 @@
       <c r="F52" s="2">
         <v>0</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="G52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>97</v>
+      <c r="I52" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="1">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:10">
+      <c r="C54" s="1">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="151">
   <si>
     <t>_id</t>
   </si>
@@ -473,7 +473,10 @@
     <t>道士输出红装</t>
   </si>
   <si>
-    <t>41,42,43,44,45,46,47,48</t>
+    <t>20,20,20,20,20,20,20,20,20,20</t>
+  </si>
+  <si>
+    <t>41,42,43,44,45,46,47,48,49,50</t>
   </si>
   <si>
     <t>道士输出红装自选</t>
@@ -1452,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="C3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1461,7 +1464,7 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="49.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="42.25" style="1" customWidth="1"/>
@@ -2730,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/GiftPackConfig.xlsx
+++ b/Excel/GiftPackConfig.xlsx
@@ -284,142 +284,142 @@
     <t>180006,180008,180010,180018,180020,180021</t>
   </si>
   <si>
+    <t>180001,180005,180007,180008,180009,180019</t>
+  </si>
+  <si>
+    <t>神技自选</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>8001,8002,8003,8004,8005,8006,8007,8008,8009,8010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>10阶级技能自选</t>
+  </si>
+  <si>
+    <t>1010,2010,3010</t>
+  </si>
+  <si>
+    <t>地钉，分身，无极 三选一</t>
+  </si>
+  <si>
+    <t>魂骨自选</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>8101,8102,8103,8104,8105,8106,8107,8108</t>
+  </si>
+  <si>
+    <t>11阶级技能自选</t>
+  </si>
+  <si>
+    <t>1011,2011,3011</t>
+  </si>
+  <si>
+    <t>战魂，法魂，道魂 三选一</t>
+  </si>
+  <si>
+    <t>专属自选</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>99,100,101,102,103,104,105</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>法力盾4件套</t>
+  </si>
+  <si>
+    <t>12,12,12,12,5,5</t>
+  </si>
+  <si>
+    <t>26,27,28,29,4005,4010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,300,60</t>
+  </si>
+  <si>
+    <t>雷电6件套</t>
+  </si>
+  <si>
+    <t>12,12,12,12,12,12,5,5</t>
+  </si>
+  <si>
+    <t>30,31,32,33,34,35,4005,4010</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,300,60</t>
+  </si>
+  <si>
+    <t>刺杀吸血4件套</t>
+  </si>
+  <si>
+    <t>7,8,9,10,4005,4010</t>
+  </si>
+  <si>
+    <t>武力盾4件套</t>
+  </si>
+  <si>
+    <t>11,12,13,14,4005,4010</t>
+  </si>
+  <si>
+    <t>冰咆哮4件套</t>
+  </si>
+  <si>
+    <t>803,804,705,706,4005,4010</t>
+  </si>
+  <si>
+    <t>道力盾4件套</t>
+  </si>
+  <si>
+    <t>18,19,20,21,4005,4010</t>
+  </si>
+  <si>
+    <t>月灵4件套</t>
+  </si>
+  <si>
+    <t>22,23,24,25,4005,4010</t>
+  </si>
+  <si>
+    <t>白银礼包</t>
+  </si>
+  <si>
+    <t>15,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>4014,4012,4001,4011,4102,4010</t>
+  </si>
+  <si>
+    <t>500,2000,10000000,20,200,50</t>
+  </si>
+  <si>
+    <t>经验丹0.5K,传世精华2k,魂环碎片1KW,红装精华3,高级书页200个,专属之心50个</t>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+  </si>
+  <si>
+    <t>180005,180006,180018,180002,180004,180008</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+  </si>
+  <si>
+    <t>180007,180009,180001,180002,180004,180019</t>
+  </si>
+  <si>
     <t>高级法宝自选</t>
-  </si>
-  <si>
-    <t>180001,180002,180004,180019,180005,180009</t>
-  </si>
-  <si>
-    <t>神技自选</t>
-  </si>
-  <si>
-    <t>5,5,5,5,5,5,5,5,5,5</t>
-  </si>
-  <si>
-    <t>8001,8002,8003,8004,8005,8006,8007,8008,8009,8010</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>10阶级技能自选</t>
-  </si>
-  <si>
-    <t>1010,2010,3010</t>
-  </si>
-  <si>
-    <t>地钉，分身，无极 三选一</t>
-  </si>
-  <si>
-    <t>魂骨自选</t>
-  </si>
-  <si>
-    <t>5,5,5,5,5,5,5,5</t>
-  </si>
-  <si>
-    <t>8101,8102,8103,8104,8105,8106,8107,8108</t>
-  </si>
-  <si>
-    <t>11阶级技能自选</t>
-  </si>
-  <si>
-    <t>1011,2011,3011</t>
-  </si>
-  <si>
-    <t>战魂，法魂，道魂 三选一</t>
-  </si>
-  <si>
-    <t>专属自选</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>99,100,101,102,103,104,105</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>法力盾4件套</t>
-  </si>
-  <si>
-    <t>12,12,12,12,5,5</t>
-  </si>
-  <si>
-    <t>26,27,28,29,4005,4010</t>
-  </si>
-  <si>
-    <t>1,1,1,1,300,60</t>
-  </si>
-  <si>
-    <t>雷电6件套</t>
-  </si>
-  <si>
-    <t>12,12,12,12,12,12,5,5</t>
-  </si>
-  <si>
-    <t>30,31,32,33,34,35,4005,4010</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,300,60</t>
-  </si>
-  <si>
-    <t>刺杀吸血4件套</t>
-  </si>
-  <si>
-    <t>7,8,9,10,4005,4010</t>
-  </si>
-  <si>
-    <t>武力盾4件套</t>
-  </si>
-  <si>
-    <t>11,12,13,14,4005,4010</t>
-  </si>
-  <si>
-    <t>冰咆哮4件套</t>
-  </si>
-  <si>
-    <t>803,804,705,706,4005,4010</t>
-  </si>
-  <si>
-    <t>道力盾4件套</t>
-  </si>
-  <si>
-    <t>18,19,20,21,4005,4010</t>
-  </si>
-  <si>
-    <t>月灵4件套</t>
-  </si>
-  <si>
-    <t>22,23,24,25,4005,4010</t>
-  </si>
-  <si>
-    <t>白银礼包</t>
-  </si>
-  <si>
-    <t>15,5,5,5,5,5</t>
-  </si>
-  <si>
-    <t>4014,4012,4001,4011,4102,4010</t>
-  </si>
-  <si>
-    <t>500,2000,10000000,4,200,50</t>
-  </si>
-  <si>
-    <t>经验丹0.5K,传世精华2k,魂环碎片1KW,红装精华3,高级书页200个,专属之心50个</t>
-  </si>
-  <si>
-    <t>黄金礼包</t>
-  </si>
-  <si>
-    <t>180005,180006,180018,180002,180004,180008</t>
-  </si>
-  <si>
-    <t>钻石礼包</t>
-  </si>
-  <si>
-    <t>180007,180009,180001,180002,180004,180019</t>
   </si>
   <si>
     <t>战士经验红装</t>
@@ -1453,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J54"/>
+  <dimension ref="C3:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2178,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2190,13 +2190,13 @@
         <v>66</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
@@ -2204,25 +2204,25 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:10">
@@ -2230,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2242,13 +2242,13 @@
         <v>35</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:10">
@@ -2256,25 +2256,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:10">
@@ -2282,7 +2282,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2294,73 +2294,47 @@
         <v>35</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:10">
-      <c r="C36" s="1">
         <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2369,24 +2343,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2395,24 +2369,24 @@
         <v>0</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2421,24 +2395,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:10">
       <c r="C41" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2447,102 +2421,102 @@
         <v>0</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:10">
       <c r="C42" s="1">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H42" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
       <c r="C43" s="1">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
+      <c r="C44" s="1">
         <v>105</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:10">
-      <c r="C45" s="1">
+      <c r="I44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>126</v>
+      <c r="J44" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:10">
       <c r="C46" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2551,24 +2525,24 @@
         <v>0</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:10">
       <c r="C47" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2580,47 +2554,47 @@
         <v>66</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:10">
-      <c r="C49" s="1">
-        <v>109</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2632,21 +2606,21 @@
         <v>132</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:10">
       <c r="C51" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2658,21 +2632,21 @@
         <v>132</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2684,21 +2658,21 @@
         <v>132</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:10">
       <c r="C53" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2710,38 +2684,64 @@
         <v>132</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:10">
       <c r="C54" s="1">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
         <v>114</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="I55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>150</v>
       </c>
     </row>
